--- a/-产品/EXCEL/MPGS/V2.4.0/地图配置关系表.xlsx
+++ b/-产品/EXCEL/MPGS/V2.4.0/地图配置关系表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>系统类型编码</t>
   </si>
@@ -221,6 +221,18 @@
   </si>
   <si>
     <t>电梯</t>
+  </si>
+  <si>
+    <t>CSBTCQ</t>
+  </si>
+  <si>
+    <t>超声波探测器</t>
+  </si>
+  <si>
+    <t>CSBGLQ</t>
+  </si>
+  <si>
+    <t>超声波管理器</t>
   </si>
 </sst>
 </file>
@@ -228,12 +240,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,51 +257,57 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,7 +315,31 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,42 +355,21 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -358,37 +379,22 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -401,7 +407,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,97 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,13 +569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,49 +587,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,27 +733,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -771,7 +760,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -792,6 +792,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -807,20 +816,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,10 +838,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,133 +850,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,6 +1097,12 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00DDEBF7"/>
+      <color rgb="00000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1357,10 +1369,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J129"/>
+  <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1461,7 +1473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:6">
+    <row r="7" ht="15.75" spans="1:6">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="4"/>
@@ -2055,7 +2067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" ht="15.75" spans="1:6">
+    <row r="50" ht="15" spans="1:6">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2470,10 +2482,10 @@
       <c r="B79" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C79" s="11">
-        <v>0</v>
-      </c>
-      <c r="D79" s="11" t="s">
+      <c r="C79" s="7">
+        <v>0</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E79" s="11">
@@ -2486,8 +2498,8 @@
     <row r="80" ht="15.75" spans="1:6">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
       <c r="E80" s="10">
         <v>1</v>
       </c>
@@ -2498,10 +2510,10 @@
     <row r="81" ht="15" spans="1:6">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="11">
-        <v>1</v>
-      </c>
-      <c r="D81" s="11" t="s">
+      <c r="C81" s="7">
+        <v>1</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E81" s="11">
@@ -2514,8 +2526,8 @@
     <row r="82" ht="15.75" spans="1:6">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
       <c r="E82" s="10">
         <v>1</v>
       </c>
@@ -2526,10 +2538,10 @@
     <row r="83" ht="15" spans="1:6">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
-      <c r="C83" s="11">
+      <c r="C83" s="7">
         <v>2</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E83" s="11">
@@ -2542,8 +2554,8 @@
     <row r="84" ht="15.75" spans="1:6">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
       <c r="E84" s="10">
         <v>1</v>
       </c>
@@ -2707,7 +2719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" ht="15.75" spans="1:6">
+    <row r="96" ht="15" spans="1:6">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="11">
@@ -2795,7 +2807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" ht="15.75" spans="1:6">
+    <row r="102" ht="15" spans="1:6">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="11">
@@ -2883,7 +2895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" ht="15.75" spans="1:6">
+    <row r="108" ht="15" spans="1:6">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="11">
@@ -3087,7 +3099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" ht="15.75" spans="1:6">
+    <row r="122" ht="15" spans="1:6">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="11">
@@ -3143,88 +3155,300 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" ht="15" spans="1:6">
-      <c r="A126" s="11" t="s">
+    <row r="126" ht="15.75" spans="1:6">
+      <c r="A126" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C126" s="11">
-        <v>0</v>
-      </c>
-      <c r="D126" s="11" t="s">
+      <c r="C126" s="14">
+        <v>0</v>
+      </c>
+      <c r="D126" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E126" s="11">
-        <v>0</v>
-      </c>
-      <c r="F126" s="11" t="s">
+      <c r="E126" s="14">
+        <v>0</v>
+      </c>
+      <c r="F126" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="127" ht="15" spans="1:6">
-      <c r="A127" s="6" t="s">
+    <row r="127" ht="15.75" spans="1:6">
+      <c r="A127" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C127" s="6">
-        <v>0</v>
-      </c>
-      <c r="D127" s="6" t="s">
+      <c r="C127" s="14">
+        <v>0</v>
+      </c>
+      <c r="D127" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E127" s="6">
-        <v>0</v>
-      </c>
-      <c r="F127" s="6" t="s">
+      <c r="E127" s="14">
+        <v>0</v>
+      </c>
+      <c r="F127" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="128" ht="15" spans="1:6">
-      <c r="A128" s="6" t="s">
+    <row r="128" ht="15.75" spans="1:6">
+      <c r="A128" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C128" s="6">
-        <v>0</v>
-      </c>
-      <c r="D128" s="6" t="s">
+      <c r="C128" s="14">
+        <v>0</v>
+      </c>
+      <c r="D128" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E128" s="6">
-        <v>0</v>
-      </c>
-      <c r="F128" s="6" t="s">
+      <c r="E128" s="14">
+        <v>0</v>
+      </c>
+      <c r="F128" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="129" ht="15" spans="1:6">
-      <c r="A129" s="6" t="s">
+    <row r="129" ht="15.75" spans="1:6">
+      <c r="A129" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C129" s="6">
-        <v>0</v>
-      </c>
-      <c r="D129" s="6" t="s">
+      <c r="C129" s="14">
+        <v>0</v>
+      </c>
+      <c r="D129" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E129" s="6">
-        <v>0</v>
-      </c>
-      <c r="F129" s="6" t="s">
+      <c r="E129" s="14">
+        <v>0</v>
+      </c>
+      <c r="F129" s="14" t="s">
         <v>62</v>
       </c>
     </row>
+    <row r="130" ht="15" spans="1:6">
+      <c r="A130" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C130" s="7">
+        <v>0</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="11">
+        <v>0</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" spans="1:6">
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="10">
+        <v>1</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" ht="15" spans="1:6">
+      <c r="A132" s="7"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7">
+        <v>1</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E132" s="11">
+        <v>0</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" spans="1:6">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="10">
+        <v>1</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" ht="15" spans="1:6">
+      <c r="A134" s="7"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7">
+        <v>2</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E134" s="11">
+        <v>0</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" spans="1:6">
+      <c r="A135" s="12"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="10">
+        <v>1</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" ht="15" spans="1:6">
+      <c r="A136" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C136" s="15">
+        <v>0</v>
+      </c>
+      <c r="D136" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="11">
+        <v>0</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" ht="15" spans="1:6">
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="6">
+        <v>1</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" spans="1:6">
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="10">
+        <v>2</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" ht="15" spans="1:6">
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7">
+        <v>1</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E139" s="11">
+        <v>0</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140" ht="15" spans="1:6">
+      <c r="A140" s="7"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="6">
+        <v>1</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" spans="1:6">
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="10">
+        <v>2</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" ht="15" spans="1:6">
+      <c r="A142" s="7"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7">
+        <v>2</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E142" s="11">
+        <v>0</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143" ht="15" spans="1:6">
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="6">
+        <v>1</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" spans="1:6">
+      <c r="A144" s="12"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="10">
+        <v>2</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="100">
+  <mergeCells count="122">
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="A23:A31"/>
@@ -3241,6 +3465,8 @@
     <mergeCell ref="A106:A111"/>
     <mergeCell ref="A112:A119"/>
     <mergeCell ref="A120:A125"/>
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="A136:A144"/>
     <mergeCell ref="B2:B16"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B23:B31"/>
@@ -3257,6 +3483,8 @@
     <mergeCell ref="B106:B111"/>
     <mergeCell ref="B112:B119"/>
     <mergeCell ref="B120:B125"/>
+    <mergeCell ref="B130:B135"/>
+    <mergeCell ref="B136:B144"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="C8:C16"/>
     <mergeCell ref="C17:C22"/>
@@ -3284,6 +3512,9 @@
     <mergeCell ref="C70:C72"/>
     <mergeCell ref="C73:C75"/>
     <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
     <mergeCell ref="C85:C87"/>
     <mergeCell ref="C88:C90"/>
     <mergeCell ref="C91:C93"/>
@@ -3291,6 +3522,12 @@
     <mergeCell ref="C114:C115"/>
     <mergeCell ref="C116:C117"/>
     <mergeCell ref="C118:C119"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="C142:C144"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="D8:D16"/>
     <mergeCell ref="D17:D22"/>
@@ -3318,6 +3555,9 @@
     <mergeCell ref="D70:D72"/>
     <mergeCell ref="D73:D75"/>
     <mergeCell ref="D76:D78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="D83:D84"/>
     <mergeCell ref="D85:D87"/>
     <mergeCell ref="D88:D90"/>
     <mergeCell ref="D91:D93"/>
@@ -3325,8 +3565,14 @@
     <mergeCell ref="D114:D115"/>
     <mergeCell ref="D116:D117"/>
     <mergeCell ref="D118:D119"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="D142:D144"/>
   </mergeCells>
-  <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
